--- a/COSTA_OMNICHANNEL/Get_Promotions.xlsx
+++ b/COSTA_OMNICHANNEL/Get_Promotions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BMO" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="147">
   <si>
     <t>input</t>
   </si>
@@ -186,647 +186,737 @@
     <t>description</t>
   </si>
   <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>MWG0040</t>
+  </si>
+  <si>
+    <t>TC_OMC_01</t>
+  </si>
+  <si>
+    <t>TC_OMC_02</t>
+  </si>
+  <si>
+    <t>TC_OMC_03</t>
+  </si>
+  <si>
+    <t>TC_OMC_04</t>
+  </si>
+  <si>
+    <t>TC_OMC_05</t>
+  </si>
+  <si>
+    <t>TC_OMC_06</t>
+  </si>
+  <si>
+    <t>TC_OMC_06.1</t>
+  </si>
+  <si>
+    <t>TC_OMC_08</t>
+  </si>
+  <si>
+    <t>TC_OMC_09</t>
+  </si>
+  <si>
+    <t>TC_OMC_10</t>
+  </si>
+  <si>
+    <t>TC_OMC_11</t>
+  </si>
+  <si>
+    <t>TC_OMC_199</t>
+  </si>
+  <si>
+    <t>TC_OMC_200</t>
+  </si>
+  <si>
+    <t>TC_OMC_201</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:07 GMT
+Date: Tue, 20 Oct 2020 06:15:26 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "56b0d565-e7e4-4921-89a3-373f215e883e",
-    "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-02T11:52:07+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '''' for query parameter limit. Invalid type String, expected Integer"
+    "transactionId": "a5d5a7a4-55b4-4da8-abc0-338796ac35d6",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:26+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>56b0d565-e7e4-4921-89a3-373f215e883e</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>a5d5a7a4-55b4-4da8-abc0-338796ac35d6</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:07 GMT
+Date: Tue, 20 Oct 2020 06:15:27 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "41abfbea-c0a6-4eec-8e2a-41d88b62ef99",
-    "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-02T11:52:07+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '''' for query parameter offset. Invalid type String, expected Integer"
+    "transactionId": "abae82e3-abac-4167-8379-fe58c00c0bb4",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:27+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>41abfbea-c0a6-4eec-8e2a-41d88b62ef99</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 200 OK
-Content-Type: application/json;charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:09 GMT
-Server: nginx
-Content-Length: 6
-Connection: keep-alive
-[
-]</t>
-  </si>
-  <si>
-    <t>5a6c50e6-b958-4bf1-9011-6e9594444dbd</t>
-  </si>
-  <si>
-    <t>d2a81e77-d3ae-4605-bf9a-369c7f107550</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 404 Not Found
+    <t>abae82e3-abac-4167-8379-fe58c00c0bb4</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:10 GMT
-htpp.status: 404
+Date: Tue, 20 Oct 2020 06:15:27 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "824875e5-5235-4a39-8df6-4afe644c6f09",
-    "exceptionCode": "MWG0044",
-    "timeStamp": "2020-07-02T11:52:10+0000",
-    "message": "RESOURCE_NOT_FOUND",
-    "reason": "The resource requested is not found"
+    "transactionId": "7efdb7c9-f747-4af3-bf7b-893c1335395d",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:27+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>824875e5-5235-4a39-8df6-4afe644c6f09</t>
+    <t>7efdb7c9-f747-4af3-bf7b-893c1335395d</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:10 GMT
+Date: Tue, 20 Oct 2020 06:15:28 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "b29b0e6a-4518-43e5-afc6-2b8e041bd260",
+    "transactionId": "bf9e1935-a66f-46de-abbb-67e0314ded04",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-02T11:52:10+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '\"d' for query parameter limit. Underlying error while parsing YAML syntax: 'while scanning a quoted scalar\n in 'reader', line 1, column 1:\n    \"d\n    ^\nfound unexpected end of stream\n in 'reader', line 1, column 3:\n    \"d\n      ^\n'"
+    "timeStamp": "2020-10-20T06:15:28+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '' for header X-COSTA-LANG. Invalid element ."
   }
 }</t>
   </si>
   <si>
-    <t>b29b0e6a-4518-43e5-afc6-2b8e041bd260</t>
+    <t>bf9e1935-a66f-46de-abbb-67e0314ded04</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:10 GMT
+Date: Tue, 20 Oct 2020 06:15:29 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "7ecdc491-719c-40c8-89a3-d65441174d79",
+    "transactionId": "6d386191-5437-4160-818b-22c80bef9454",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-02T11:52:10+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '563625695637452375239575952742595459652634' for query parameter limit. Invalid type String, expected Integer"
+    "timeStamp": "2020-10-20T06:15:29+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'en-gbaaa' for header X-COSTA-LANG. Invalid element en-gbaaa."
   }
 }</t>
   </si>
   <si>
-    <t>7ecdc491-719c-40c8-89a3-d65441174d79</t>
+    <t>6d386191-5437-4160-818b-22c80bef9454</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Thu, 02 Jul 2020 11:52:10 GMT
+Date: Tue, 20 Oct 2020 06:15:29 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "04a8afbe-441c-4a62-afcb-4b58cb83b766",
+    "transactionId": "c03d4dd8-5ee8-458e-a0c7-4abed8e366d1",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-02T11:52:10+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '752965274527599555255555555521455585' for query parameter offset. Invalid type String, expected Integer"
+    "timeStamp": "2020-10-20T06:15:29+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '123' for header X-COSTA-LANG. Invalid element 123."
   }
 }</t>
   </si>
   <si>
-    <t>04a8afbe-441c-4a62-afcb-4b58cb83b766</t>
+    <t>c03d4dd8-5ee8-458e-a0c7-4abed8e366d1</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:54 GMT
+Date: Tue, 20 Oct 2020 06:15:29 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "3d1c5d6b-e8fb-413d-b4f6-9c75f7e90dd1",
+    "transactionId": "2c4e6ce7-184f-4929-8ec7-a9994e9aff8f",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:54+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '' for header X-COSTA-LANG. Invalid element ."
+    "timeStamp": "2020-10-20T06:15:29+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'null' for header X-COSTA-LANG. Invalid element null."
   }
 }</t>
   </si>
   <si>
-    <t>3d1c5d6b-e8fb-413d-b4f6-9c75f7e90dd1</t>
-  </si>
-  <si>
-    <t>MWG0040</t>
-  </si>
-  <si>
-    <t>NOT_VALID_REQUEST</t>
+    <t>2c4e6ce7-184f-4929-8ec7-a9994e9aff8f</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:54 GMT
+Date: Tue, 20 Oct 2020 06:15:30 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "146ea827-7009-40d8-83da-a9651a6b5a42",
+    "transactionId": "f634c1d9-e252-43cf-8060-8cf559d438dc",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:54+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'en-gbaaa' for header X-COSTA-LANG. Invalid element en-gbaaa."
+    "timeStamp": "2020-10-20T06:15:30+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'true' for header X-COSTA-LANG. Invalid element true."
   }
 }</t>
   </si>
   <si>
-    <t>146ea827-7009-40d8-83da-a9651a6b5a42</t>
+    <t>f634c1d9-e252-43cf-8060-8cf559d438dc</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:55 GMT
+Date: Tue, 20 Oct 2020 06:15:30 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "47d42864-3846-4f4d-a1e3-cf36b6ac945a",
+    "transactionId": "88092551-9c77-4514-b6a6-634925250234",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:55+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '123' for header X-COSTA-LANG. Invalid element 123."
+    "timeStamp": "2020-10-20T06:15:30+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '' for header X-COSTA-COUNTRY. Invalid element ."
   }
 }</t>
   </si>
   <si>
-    <t>47d42864-3846-4f4d-a1e3-cf36b6ac945a</t>
+    <t>88092551-9c77-4514-b6a6-634925250234</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:55 GMT
+Date: Tue, 20 Oct 2020 06:15:30 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "74f0416e-1d6b-4309-8c97-2918b078ba79",
+    "transactionId": "3b21e126-ff6f-4f74-bd43-4e19f14c353b",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:55+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'null' for header X-COSTA-LANG. Invalid element null."
+    "timeStamp": "2020-10-20T06:15:30+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'GB11' for header X-COSTA-COUNTRY. Invalid element GB11."
   }
 }</t>
   </si>
   <si>
-    <t>74f0416e-1d6b-4309-8c97-2918b078ba79</t>
+    <t>3b21e126-ff6f-4f74-bd43-4e19f14c353b</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:55 GMT
+Date: Tue, 20 Oct 2020 06:15:31 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "d26c2b87-d9c6-49a4-8b0d-2900812e1fa7",
+    "transactionId": "6e8013e9-ae60-4486-be55-ffa2fa44c50f",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:55+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'true' for header X-COSTA-LANG. Invalid element true."
+    "timeStamp": "2020-10-20T06:15:31+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '123' for header X-COSTA-COUNTRY. Invalid element 123."
   }
 }</t>
   </si>
   <si>
-    <t>d26c2b87-d9c6-49a4-8b0d-2900812e1fa7</t>
+    <t>6e8013e9-ae60-4486-be55-ffa2fa44c50f</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:56 GMT
-Server: nginx
-Content-Length: 277
-Connection: keep-alive
-{
-  "exception": {
-    "transactionId": "d6201c84-97de-418e-97a7-b1df1bf471de",
-    "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:56+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '' for header X-COSTA-COUNTRY. Invalid element ."
-  }
-}</t>
-  </si>
-  <si>
-    <t>d6201c84-97de-418e-97a7-b1df1bf471de</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
-Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:56 GMT
+Date: Tue, 20 Oct 2020 06:15:31 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "8a25359a-898d-4805-922e-23f4cfe788da",
+    "transactionId": "b64187af-7ed7-4c1e-b7fd-266559430e0c",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:56+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'GB11' for header X-COSTA-COUNTRY. Invalid element GB11."
+    "timeStamp": "2020-10-20T06:15:31+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'null' for header X-COSTA-COUNTRY. Invalid element null."
   }
 }</t>
   </si>
   <si>
-    <t>8a25359a-898d-4805-922e-23f4cfe788da</t>
+    <t>b64187af-7ed7-4c1e-b7fd-266559430e0c</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:56 GMT
+Date: Tue, 20 Oct 2020 06:15:31 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "350c4423-2ae2-4546-8d79-5505909e8acf",
+    "transactionId": "2a64f48e-c34c-46ad-8f18-adc28fee04b6",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:56+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '123' for header X-COSTA-COUNTRY. Invalid element 123."
+    "timeStamp": "2020-10-20T06:15:31+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '' for header X-COSTA-CHANNEL. Invalid element ."
   }
 }</t>
   </si>
   <si>
-    <t>350c4423-2ae2-4546-8d79-5505909e8acf</t>
+    <t>2a64f48e-c34c-46ad-8f18-adc28fee04b6</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:56 GMT
+Date: Tue, 20 Oct 2020 06:15:32 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "5467505d-7997-4113-954c-eb40d6ce81f5",
+    "transactionId": "7929bde4-7251-462b-bc97-62deb63873f1",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:56+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'null' for header X-COSTA-COUNTRY. Invalid element null."
+    "timeStamp": "2020-10-20T06:15:32+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'AAAA' for header X-COSTA-CHANNEL. Invalid element AAAA."
   }
 }</t>
   </si>
   <si>
-    <t>5467505d-7997-4113-954c-eb40d6ce81f5</t>
+    <t>7929bde4-7251-462b-bc97-62deb63873f1</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:57 GMT
+Date: Tue, 20 Oct 2020 06:15:32 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "04f0740b-ed04-4db3-89ed-a440eef049ef",
+    "transactionId": "dacb0965-2fc4-4fe3-8cd7-33dc10863d3b",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:57+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '' for header X-COSTA-CHANNEL. Invalid element ."
+    "timeStamp": "2020-10-20T06:15:32+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '123' for header X-COSTA-CHANNEL. Invalid element 123."
   }
 }</t>
   </si>
   <si>
-    <t>04f0740b-ed04-4db3-89ed-a440eef049ef</t>
+    <t>dacb0965-2fc4-4fe3-8cd7-33dc10863d3b</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:57 GMT
+Date: Tue, 20 Oct 2020 06:15:32 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "b81e5489-f7ea-4892-ac90-13156fd7a621",
+    "transactionId": "e077ae5d-3a59-4906-addf-070fc93683d5",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:57+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'AAAA' for header X-COSTA-CHANNEL. Invalid element AAAA."
+    "timeStamp": "2020-10-20T06:15:32+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value 'null' for header X-COSTA-CHANNEL. Invalid element null."
   }
 }</t>
   </si>
   <si>
-    <t>b81e5489-f7ea-4892-ac90-13156fd7a621</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>e077ae5d-3a59-4906-addf-070fc93683d5</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:57 GMT
+Date: Tue, 20 Oct 2020 06:15:33 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "cf9b9d38-abc4-444a-ab45-961b3e7f62b9",
-    "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:57+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value '123' for header X-COSTA-CHANNEL. Invalid element 123."
+    "transactionId": "f5a38761-e825-4560-8991-6b4b1ba42ca8",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:33+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>cf9b9d38-abc4-444a-ab45-961b3e7f62b9</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>f5a38761-e825-4560-8991-6b4b1ba42ca8</t>
+  </si>
+  <si>
+    <t>MWS1021</t>
+  </si>
+  <si>
+    <t>Invalid Token</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:57 GMT
+Date: Tue, 20 Oct 2020 06:15:33 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "bae37ee9-3e86-40d3-aacf-312cff2e1f23",
-    "exceptionCode": "MWG0040",
-    "timeStamp": "2020-07-03T05:48:57+0000",
-    "message": "NOT_VALID_REQUEST",
-    "reason": "Invalid value 'null' for header X-COSTA-CHANNEL. Invalid element null."
+    "transactionId": "32b5815c-b613-468b-a490-66639e4ba36a",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:33+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>bae37ee9-3e86-40d3-aacf-312cff2e1f23</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>32b5815c-b613-468b-a490-66639e4ba36a</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:58 GMT
+Date: Tue, 20 Oct 2020 06:15:34 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "5784e52f-9b70-46fd-9617-f77e24af9a45",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:48:58+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "2ff9f7e6-dfe8-4716-af5e-fa24a6c00186",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:34+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>5784e52f-9b70-46fd-9617-f77e24af9a45</t>
-  </si>
-  <si>
-    <t>MWB0163</t>
-  </si>
-  <si>
-    <t>INVALID_HEADER_VALUE</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>2ff9f7e6-dfe8-4716-af5e-fa24a6c00186</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:48:59 GMT
+Date: Tue, 20 Oct 2020 06:15:34 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "ce8f45c1-54bc-47b4-9ed3-0367a8ae6093",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:48:59+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "1d1c80f6-923b-495f-80bf-682653476712",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:34+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>ce8f45c1-54bc-47b4-9ed3-0367a8ae6093</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>1d1c80f6-923b-495f-80bf-682653476712</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:49:00 GMT
+Date: Tue, 20 Oct 2020 06:15:35 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "ff7a66f6-059e-45af-a5c2-e1276dea6e65",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:49:00+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "5016a03f-86a6-4449-98f2-f3835ff428dc",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:35+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>ff7a66f6-059e-45af-a5c2-e1276dea6e65</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>5016a03f-86a6-4449-98f2-f3835ff428dc</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:49:00 GMT
+Date: Tue, 20 Oct 2020 06:15:35 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "ffc6d2d2-3744-4b62-b961-39bae08d0237",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:49:00+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "b5caae14-d6e7-4add-bcc4-2cd7211827db",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:35+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>ffc6d2d2-3744-4b62-b961-39bae08d0237</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>b5caae14-d6e7-4add-bcc4-2cd7211827db</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:49:01 GMT
+Date: Tue, 20 Oct 2020 06:15:35 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "e94242d9-e24c-4eaa-99b1-289b9b95da49",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:49:01+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "4c7bc7b3-0d52-4ce3-87ca-5cf5056bded5",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:35+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>e94242d9-e24c-4eaa-99b1-289b9b95da49</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request
+    <t>4c7bc7b3-0d52-4ce3-87ca-5cf5056bded5</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 403 Forbidden
+Content-Type: application/json
+Date: Tue, 20 Oct 2020 06:15:36 GMT
+Server: nginx
+Content-Length: 80
+Connection: keep-alive
+{ "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
+  </si>
+  <si>
+    <t>5f5be254-04ea-4788-8ea9-f25adf225d03</t>
+  </si>
+  <si>
+    <t>74b10f70-080d-4675-9e18-1256419c4eb3</t>
+  </si>
+  <si>
+    <t>00b2e3c8-dc5b-4b94-a43d-1337bd52f401</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 403 Forbidden
+Content-Type: application/json
+Date: Tue, 20 Oct 2020 06:15:37 GMT
+Server: nginx
+Content-Length: 80
+Connection: keep-alive
+{ "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
+  </si>
+  <si>
+    <t>e223a6e5-8a2a-4fcf-9b22-7ecc015da244</t>
+  </si>
+  <si>
+    <t>1429276b-63bb-431d-9c95-6f0865234dd8</t>
+  </si>
+  <si>
+    <t>b6a59602-06eb-4cea-baba-ca263b2c785a</t>
+  </si>
+  <si>
+    <t>3a5e1039-c811-4eee-9e2a-21ec3e3b6fed</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:49:02 GMT
+Date: Tue, 20 Oct 2020 06:15:38 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "f5aa8ac4-3110-4023-972a-34b73a06f40c",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:49:02+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "dc1b0675-18dc-437f-b34c-632bdeddb5b9",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:38+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
   }
 }</t>
   </si>
   <si>
-    <t>f5aa8ac4-3110-4023-972a-34b73a06f40c</t>
+    <t>dc1b0675-18dc-437f-b34c-632bdeddb5b9</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Fri, 03 Jul 2020 05:49:02 GMT
+Date: Tue, 20 Oct 2020 06:15:39 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "19ddf3dd-dda8-40ed-ad71-2b2ce4b78fb1",
-    "exceptionCode": "MWB0163",
-    "timeStamp": "2020-07-03T05:49:02+0000",
-    "message": "INVALID_HEADER_VALUE",
-    "reason": "X-Channel header value is invalid - expected one of: W, O, D"
+    "transactionId": "3e9be20c-e8cd-49d9-a7de-5c5093864eda",
+    "exceptionCode": "MWG0040",
+    "timeStamp": "2020-10-20T06:15:39+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '''' for query parameter limit. Invalid type String, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>19ddf3dd-dda8-40ed-ad71-2b2ce4b78fb1</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 403 Forbidden
-Content-Type: application/json
-Date: Fri, 03 Jul 2020 05:49:03 GMT
+    <t>3e9be20c-e8cd-49d9-a7de-5c5093864eda</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:39 GMT
 Server: nginx
-Content-Length: 80
+transfer-encoding: chunked
 Connection: keep-alive
-{ "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
-  </si>
-  <si>
-    <t>291f188e-07ca-45bb-a3e2-cc6f27189f2e</t>
-  </si>
-  <si>
-    <t>75e8e817-6708-4de1-a7a7-9b1e3c59d39e</t>
-  </si>
-  <si>
-    <t>8c60283c-33d7-44de-b1fe-af21273c0072</t>
-  </si>
-  <si>
-    <t>aa170585-a42a-462e-95db-46f6e355190b</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 403 Forbidden
-Content-Type: application/json
-Date: Fri, 03 Jul 2020 05:49:04 GMT
+{
+  "exception": {
+    "transactionId": "690c09db-1dec-4bb2-a666-068bb861ddd6",
+    "exceptionCode": "MWG0040",
+    "timeStamp": "2020-10-20T06:15:39+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '''' for query parameter offset. Invalid type String, expected Integer"
+  }
+}</t>
+  </si>
+  <si>
+    <t>690c09db-1dec-4bb2-a666-068bb861ddd6</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:40 GMT
 Server: nginx
-Content-Length: 80
+transfer-encoding: chunked
 Connection: keep-alive
-{ "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
-  </si>
-  <si>
-    <t>0571500d-04da-4793-921d-d88ecdfecbb2</t>
-  </si>
-  <si>
-    <t>1bda3d18-b757-4673-9133-8e7a968c1390</t>
-  </si>
-  <si>
-    <t>d1e48ad3-20a3-446c-8b8a-4c3e87214058</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 200 OK
-Content-Type: application/json;charset=UTF-8
-Date: Fri, 03 Jul 2020 05:49:05 GMT
+{
+  "exception": {
+    "transactionId": "71156a41-0d73-4ebc-97eb-9cc6775e164d",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:40+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
+  }
+}</t>
+  </si>
+  <si>
+    <t>71156a41-0d73-4ebc-97eb-9cc6775e164d</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:40 GMT
 Server: nginx
-Content-Length: 6
+transfer-encoding: chunked
 Connection: keep-alive
-[
-]</t>
-  </si>
-  <si>
-    <t>b31ada0e-b39d-41fe-afc1-1434162858a7</t>
-  </si>
-  <si>
-    <t>TC_OMC_01</t>
-  </si>
-  <si>
-    <t>TC_OMC_02</t>
-  </si>
-  <si>
-    <t>TC_OMC_03</t>
-  </si>
-  <si>
-    <t>TC_OMC_04</t>
-  </si>
-  <si>
-    <t>TC_OMC_05</t>
-  </si>
-  <si>
-    <t>TC_OMC_06</t>
-  </si>
-  <si>
-    <t>TC_OMC_06.1</t>
-  </si>
-  <si>
-    <t>TC_OMC_08</t>
-  </si>
-  <si>
-    <t>TC_OMC_09</t>
-  </si>
-  <si>
-    <t>TC_OMC_10</t>
-  </si>
-  <si>
-    <t>TC_OMC_11</t>
-  </si>
-  <si>
-    <t>TC_OMC_199</t>
-  </si>
-  <si>
-    <t>TC_OMC_200</t>
-  </si>
-  <si>
-    <t>TC_OMC_201</t>
+{
+  "exception": {
+    "transactionId": "b00e9c4a-9133-451a-9fbe-5be89d532206",
+    "exceptionCode": "MWS1021",
+    "timeStamp": "2020-10-20T06:15:40+0000",
+    "message": "Invalid Token",
+    "reason": "Authorization Token provided is invalid"
+  }
+}</t>
+  </si>
+  <si>
+    <t>b00e9c4a-9133-451a-9fbe-5be89d532206</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:40 GMT
+Server: nginx
+transfer-encoding: chunked
+Connection: keep-alive
+{
+  "exception": {
+    "transactionId": "b6b4ee5a-d5d6-4d4d-aeff-0f559e78af4e",
+    "exceptionCode": "MWG0044",
+    "timeStamp": "2020-10-20T06:15:40+0000",
+    "message": "Not Found",
+    "reason": "The resource requested is not found"
+  }
+}</t>
+  </si>
+  <si>
+    <t>b6b4ee5a-d5d6-4d4d-aeff-0f559e78af4e</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:41 GMT
+Server: nginx
+transfer-encoding: chunked
+Connection: keep-alive
+{
+  "exception": {
+    "transactionId": "68fe5b49-e0b4-4a13-bd3e-8079bdb6b21b",
+    "exceptionCode": "MWG0040",
+    "timeStamp": "2020-10-20T06:15:41+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '\"d' for query parameter limit. Underlying error while parsing YAML syntax: 'while scanning a quoted scalar\n in 'reader', line 1, column 1:\n    \"d\n    ^\nfound unexpected end of stream\n in 'reader', line 1, column 3:\n    \"d\n      ^\n'"
+  }
+}</t>
+  </si>
+  <si>
+    <t>68fe5b49-e0b4-4a13-bd3e-8079bdb6b21b</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:41 GMT
+Server: nginx
+transfer-encoding: chunked
+Connection: keep-alive
+{
+  "exception": {
+    "transactionId": "a46715bb-98a2-4007-add5-7792ab51af48",
+    "exceptionCode": "MWG0040",
+    "timeStamp": "2020-10-20T06:15:41+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '563625695637452375239575952742595459652634' for query parameter limit. Invalid type String, expected Integer"
+  }
+}</t>
+  </si>
+  <si>
+    <t>a46715bb-98a2-4007-add5-7792ab51af48</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request
+Content-Type: application/json; charset=UTF-8
+Date: Tue, 20 Oct 2020 06:15:41 GMT
+Server: nginx
+transfer-encoding: chunked
+Connection: keep-alive
+{
+  "exception": {
+    "transactionId": "6aaf9edd-7d47-4170-aeb4-a6f7589827d8",
+    "exceptionCode": "MWG0040",
+    "timeStamp": "2020-10-20T06:15:41+0000",
+    "message": "Bad Request",
+    "reason": "Invalid value '752965274527599555255555555521455585' for query parameter offset. Invalid type String, expected Integer"
+  }
+}</t>
+  </si>
+  <si>
+    <t>6aaf9edd-7d47-4170-aeb4-a6f7589827d8</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,24 +1435,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1370,14 +1468,22 @@
       <c r="C3" s="1">
         <v>200</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1385,10 +1491,18 @@
       <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1439,7 +1553,7 @@
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
@@ -1454,15 +1568,15 @@
         <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -1477,15 +1591,15 @@
         <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -1494,21 +1608,21 @@
         <v>200</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -1523,15 +1637,15 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
@@ -1546,15 +1660,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1569,15 +1683,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
@@ -1592,15 +1706,15 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
@@ -1615,10 +1729,10 @@
         <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1829,7 @@
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -1755,16 +1869,16 @@
         <v>21</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>21</v>
@@ -1775,7 +1889,7 @@
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1817,16 +1931,16 @@
         <v>21</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
         <v>21</v>
@@ -1837,7 +1951,7 @@
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1879,16 +1993,16 @@
         <v>21</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
         <v>21</v>
@@ -1899,7 +2013,7 @@
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1941,16 +2055,16 @@
         <v>21</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="S5" t="s">
         <v>21</v>
@@ -1961,7 +2075,7 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2003,16 +2117,16 @@
         <v>21</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
         <v>21</v>
@@ -2023,7 +2137,7 @@
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2063,16 +2177,16 @@
         <v>21</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
         <v>21</v>
@@ -2083,7 +2197,7 @@
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2125,16 +2239,16 @@
         <v>21</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
         <v>21</v>
@@ -2145,7 +2259,7 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2187,16 +2301,16 @@
         <v>21</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
         <v>21</v>
@@ -2207,7 +2321,7 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2249,16 +2363,16 @@
         <v>21</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
         <v>21</v>
@@ -2269,7 +2383,7 @@
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2309,16 +2423,16 @@
         <v>21</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
         <v>21</v>
@@ -2329,7 +2443,7 @@
     </row>
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -2371,16 +2485,16 @@
         <v>21</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s">
         <v>21</v>
@@ -2391,7 +2505,7 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -2433,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
         <v>21</v>
@@ -2453,7 +2567,7 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -2495,16 +2609,16 @@
         <v>21</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
         <v>21</v>
@@ -2515,7 +2629,7 @@
     </row>
     <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -2555,16 +2669,16 @@
         <v>21</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S15" t="s">
         <v>21</v>
@@ -2575,7 +2689,7 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2617,16 +2731,16 @@
         <v>21</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S16" t="s">
         <v>21</v>
@@ -2637,7 +2751,7 @@
     </row>
     <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -2679,16 +2793,16 @@
         <v>21</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="Q17" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="R17" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S17" t="s">
         <v>21</v>
@@ -2699,7 +2813,7 @@
     </row>
     <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -2741,16 +2855,16 @@
         <v>21</v>
       </c>
       <c r="O18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="S18" t="s">
         <v>21</v>
@@ -2761,7 +2875,7 @@
     </row>
     <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -2803,16 +2917,16 @@
         <v>21</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S19" t="s">
         <v>21</v>
@@ -2823,7 +2937,7 @@
     </row>
     <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -2865,16 +2979,16 @@
         <v>21</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S20" t="s">
         <v>21</v>
@@ -2885,7 +2999,7 @@
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -2927,16 +3041,16 @@
         <v>21</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
@@ -2947,7 +3061,7 @@
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -2987,10 +3101,10 @@
         <v>21</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="18" t="s">
         <v>21</v>
@@ -3007,7 +3121,7 @@
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -3049,10 +3163,10 @@
         <v>21</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="18" t="s">
         <v>21</v>
@@ -3069,7 +3183,7 @@
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -3109,10 +3223,10 @@
         <v>21</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="18" t="s">
         <v>21</v>
@@ -3129,7 +3243,7 @@
     </row>
     <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -3171,10 +3285,10 @@
         <v>21</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="18" t="s">
         <v>21</v>
@@ -3191,7 +3305,7 @@
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -3229,10 +3343,10 @@
         <v>21</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="18" t="s">
         <v>21</v>
@@ -3249,7 +3363,7 @@
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
@@ -3287,10 +3401,10 @@
         <v>21</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q27" s="18" t="s">
         <v>21</v>
@@ -3307,7 +3421,7 @@
     </row>
     <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -3345,10 +3459,10 @@
         <v>21</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="18" t="s">
         <v>21</v>
@@ -3365,7 +3479,7 @@
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
@@ -3401,22 +3515,22 @@
         <v>200</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="S29" t="s">
         <v>21</v>
